--- a/Documenti/Marco Catteneo/MRESim/logs/ProactiveBuddySystem/stats/analisi PB.xlsx
+++ b/Documenti/Marco Catteneo/MRESim/logs/ProactiveBuddySystem/stats/analisi PB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Tesi\Documenti\Marco Catteneo\MRESim\logs\ProactiveBuddySystem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4DEA37-AC3C-487D-AB88-F2EB6813012F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDE85E5-884E-497F-942B-E52255CC5D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="3" r:id="rId1"/>
@@ -1634,8 +1634,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1652,17 +1653,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$I$2:$I$7</c:f>
@@ -1670,27 +1671,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137.5</c:v>
+                  <c:v>137.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>101.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179</c:v>
+                  <c:v>248.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.5</c:v>
+                  <c:v>87.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-551B-47F2-81FF-DF53666E31E4}"/>
@@ -1712,17 +1712,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$J$2:$J$7</c:f>
@@ -1750,7 +1748,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-551B-47F2-81FF-DF53666E31E4}"/>
@@ -1772,17 +1769,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$K$2:$K$7</c:f>
@@ -1810,52 +1805,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-551B-47F2-81FF-DF53666E31E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'8'!$L$2:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-551B-47F2-81FF-DF53666E31E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1874,17 +1826,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$M$2:$M$7</c:f>
@@ -1912,7 +1862,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-551B-47F2-81FF-DF53666E31E4}"/>
@@ -1927,10 +1876,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$L$2:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-551B-47F2-81FF-DF53666E31E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -2193,8 +2199,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2211,17 +2218,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$W$2:$W$7</c:f>
@@ -2249,7 +2256,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D7F-4B1D-A1C6-0EFD256DC4B2}"/>
@@ -2271,17 +2277,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$X$2:$X$7</c:f>
@@ -2309,7 +2313,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D7F-4B1D-A1C6-0EFD256DC4B2}"/>
@@ -2331,17 +2334,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$Y$2:$Y$7</c:f>
@@ -2369,52 +2370,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D7F-4B1D-A1C6-0EFD256DC4B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8'!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'8'!$Z$2:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1D7F-4B1D-A1C6-0EFD256DC4B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2433,17 +2391,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'8'!$AA$2:$AA$7</c:f>
@@ -2471,7 +2427,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1D7F-4B1D-A1C6-0EFD256DC4B2}"/>
@@ -2486,10 +2441,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$Z$2:$Z$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1D7F-4B1D-A1C6-0EFD256DC4B2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -2757,8 +2769,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2775,17 +2788,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$I$2:$I$7</c:f>
@@ -2793,27 +2806,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>114</c:v>
+                  <c:v>118.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133.5</c:v>
+                  <c:v>136.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.5</c:v>
+                  <c:v>161.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-24B2-4203-B6E1-7525A77F312E}"/>
@@ -2835,17 +2847,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$J$2:$J$7</c:f>
@@ -2873,7 +2883,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-24B2-4203-B6E1-7525A77F312E}"/>
@@ -2895,17 +2904,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$K$2:$K$7</c:f>
@@ -2933,52 +2940,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-24B2-4203-B6E1-7525A77F312E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'9'!$L$2:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-24B2-4203-B6E1-7525A77F312E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2997,17 +2961,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$M$2:$M$7</c:f>
@@ -3035,7 +2997,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-24B2-4203-B6E1-7525A77F312E}"/>
@@ -3050,10 +3011,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$L$2:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-24B2-4203-B6E1-7525A77F312E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -3316,8 +3334,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3334,17 +3353,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$W$2:$W$7</c:f>
@@ -3372,7 +3391,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CF2F-4741-8CA0-52BC279D7A66}"/>
@@ -3394,17 +3412,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$X$2:$X$7</c:f>
@@ -3432,7 +3448,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CF2F-4741-8CA0-52BC279D7A66}"/>
@@ -3454,17 +3469,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$Y$2:$Y$7</c:f>
@@ -3492,52 +3505,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CF2F-4741-8CA0-52BC279D7A66}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9'!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'9'!$Z$2:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CF2F-4741-8CA0-52BC279D7A66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3556,17 +3526,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$AA$2:$AA$7</c:f>
@@ -3594,7 +3562,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-CF2F-4741-8CA0-52BC279D7A66}"/>
@@ -3609,10 +3576,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$Z$2:$Z$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-CF2F-4741-8CA0-52BC279D7A66}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -3917,22 +3941,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>128.5</c:v>
+                  <c:v>123.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>143</c:v>
+                  <c:v>141.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.5</c:v>
+                  <c:v>86.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.5</c:v>
+                  <c:v>171.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.5</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5052,22 +5076,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>133.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.5</c:v>
+                  <c:v>84.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.5</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.5</c:v>
+                  <c:v>136.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>74.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8633,8 +8657,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8651,17 +8676,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$I$2:$I$7</c:f>
@@ -8669,7 +8694,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>140.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>127</c:v>
@@ -8689,7 +8714,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A096-4F07-8988-3989041A7A1F}"/>
@@ -8711,17 +8735,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$J$2:$J$7</c:f>
@@ -8749,7 +8771,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A096-4F07-8988-3989041A7A1F}"/>
@@ -8771,17 +8792,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$K$2:$K$7</c:f>
@@ -8804,12 +8823,11 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.5</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A096-4F07-8988-3989041A7A1F}"/>
@@ -8831,17 +8849,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$M$2:$M$7</c:f>
@@ -8869,7 +8885,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A096-4F07-8988-3989041A7A1F}"/>
@@ -8884,12 +8899,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
@@ -8911,17 +8926,15 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -8937,17 +8950,16 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A096-4F07-8988-3989041A7A1F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -9210,8 +9222,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -9228,17 +9241,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$W$2:$W$7</c:f>
@@ -9266,7 +9279,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C361-43C9-8CB5-96731B781D2A}"/>
@@ -9288,17 +9300,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$X$2:$X$7</c:f>
@@ -9326,7 +9336,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C361-43C9-8CB5-96731B781D2A}"/>
@@ -9348,17 +9357,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$Y$2:$Y$7</c:f>
@@ -9381,57 +9388,14 @@
                   <c:v>2159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1165.7</c:v>
+                  <c:v>859.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C361-43C9-8CB5-96731B781D2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6'!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'6'!$Z$2:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C361-43C9-8CB5-96731B781D2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9450,17 +9414,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$AA$2:$AA$7</c:f>
@@ -9488,7 +9450,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C361-43C9-8CB5-96731B781D2A}"/>
@@ -9503,10 +9464,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6'!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6'!$Z$2:$Z$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C361-43C9-8CB5-96731B781D2A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -11194,8 +11212,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -11212,17 +11231,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$I$2:$I$7</c:f>
@@ -11250,7 +11269,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9FE-446C-BB41-9A4180AC7E20}"/>
@@ -11272,17 +11290,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$J$2:$J$7</c:f>
@@ -11310,7 +11326,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9FE-446C-BB41-9A4180AC7E20}"/>
@@ -11332,17 +11347,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$K$2:$K$7</c:f>
@@ -11370,52 +11383,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A9FE-446C-BB41-9A4180AC7E20}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'7'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'7'!$L$2:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A9FE-446C-BB41-9A4180AC7E20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11434,17 +11404,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$M$2:$M$7</c:f>
@@ -11472,7 +11440,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A9FE-446C-BB41-9A4180AC7E20}"/>
@@ -11487,10 +11454,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'7'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'7'!$L$2:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A9FE-446C-BB41-9A4180AC7E20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -11753,8 +11777,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -11771,17 +11796,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$W$2:$W$7</c:f>
@@ -11809,7 +11834,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -11831,17 +11855,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$X$2:$X$7</c:f>
@@ -11869,7 +11891,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -11891,17 +11912,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$Y$2:$Y$7</c:f>
@@ -11929,7 +11948,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -11951,17 +11969,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$AA$2:$AA$7</c:f>
@@ -11989,7 +12005,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -12004,12 +12019,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
@@ -12031,17 +12046,15 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -12057,17 +12070,16 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8A97-4E36-ADCE-2D5BFDB5B312}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -25162,8 +25174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69AE5AF-8FD5-410E-BC05-A457A128AC80}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25263,7 +25275,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>138</v>
@@ -25279,7 +25291,7 @@
       </c>
       <c r="I2">
         <f>AVERAGE(B2:B3)</f>
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C3)</f>
@@ -25637,7 +25649,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="10"/>
-        <v>122.5</v>
+        <v>89.5</v>
       </c>
       <c r="M7">
         <f>AVERAGE(F11:F12)</f>
@@ -25671,7 +25683,7 @@
       </c>
       <c r="Y7">
         <f t="shared" si="11"/>
-        <v>1165.7</v>
+        <v>859.8</v>
       </c>
       <c r="AA7">
         <f t="shared" si="11"/>
@@ -25817,7 +25829,7 @@
         <v>89</v>
       </c>
       <c r="D12">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>99</v>
@@ -25832,7 +25844,7 @@
         <v>842.4</v>
       </c>
       <c r="R12">
-        <v>1485.3</v>
+        <v>873.5</v>
       </c>
       <c r="T12" s="1">
         <v>954.5</v>
@@ -25881,8 +25893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529460E3-8350-4A03-9878-4DB5B7BCF04E}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26599,8 +26611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26715,8 +26727,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>AVERAGE(B2:B3)</f>
-        <v>101</v>
+        <v>115.9</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C3)</f>
@@ -26785,8 +26796,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(B4:B5)</f>
-        <v>137.5</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="J3">
         <f>AVERAGE(C4:C5)</f>
@@ -26855,8 +26865,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>AVERAGE(B6:B7)</f>
-        <v>98</v>
+        <v>101.6</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:M4" si="4">AVERAGE(C6:C7)</f>
@@ -26925,8 +26934,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(B8:B9)</f>
-        <v>61</v>
+        <v>63.8</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:M5" si="6">AVERAGE(C8:C9)</f>
@@ -26995,8 +27003,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(B10:B11)</f>
-        <v>179</v>
+        <v>248.9</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:M6" si="8">AVERAGE(C10:C11)</f>
@@ -27065,8 +27072,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(B12:B13)</f>
-        <v>85.5</v>
+        <v>87.8</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:M7" si="10">AVERAGE(C12:C13)</f>
@@ -27317,8 +27323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602E89A9-BFC8-4FFA-A637-126A1265732C}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27433,8 +27439,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>AVERAGE(B2:B3)</f>
-        <v>114</v>
+        <v>118.1</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C3)</f>
@@ -27503,8 +27508,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(B4:B5)</f>
-        <v>133.5</v>
+        <v>136.5</v>
       </c>
       <c r="J3">
         <f>AVERAGE(C4:C5)</f>
@@ -27573,8 +27577,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>AVERAGE(B6:B7)</f>
-        <v>98</v>
+        <v>81.2</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4" si="8">AVERAGE(C6:C7)</f>
@@ -27643,8 +27646,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(B8:B9)</f>
-        <v>57</v>
+        <v>59.2</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5" si="14">AVERAGE(C8:C9)</f>
@@ -27713,8 +27715,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(B10:B11)</f>
-        <v>155.5</v>
+        <v>161.9</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6" si="20">AVERAGE(C10:C11)</f>
@@ -27783,8 +27784,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(B12:B13)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7" si="26">AVERAGE(C12:C13)</f>
@@ -28036,8 +28036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B4708-BA6E-4CCD-A232-04CF0D31B46C}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28152,8 +28152,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>AVERAGE(B2:B3)</f>
-        <v>128.5</v>
+        <v>123.7</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C3)</f>
@@ -28222,8 +28221,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(B4:B5)</f>
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="J3">
         <f>AVERAGE(C4:C5)</f>
@@ -28292,8 +28290,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>AVERAGE(B6:B7)</f>
-        <v>95.5</v>
+        <v>86.3</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:K4" si="8">AVERAGE(C6:C7)</f>
@@ -28362,8 +28359,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(B8:B9)</f>
-        <v>63</v>
+        <v>61.4</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:K5" si="12">AVERAGE(C8:C9)</f>
@@ -28432,8 +28428,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(B10:B11)</f>
-        <v>181.5</v>
+        <v>171.1</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:K6" si="16">AVERAGE(C10:C11)</f>
@@ -28502,8 +28497,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(B12:B13)</f>
-        <v>74.5</v>
+        <v>78.3</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:K7" si="20">AVERAGE(C12:C13)</f>
@@ -28754,8 +28748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612BB224-DA42-4B1F-AAE1-1268A74ABF32}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28876,8 +28870,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <f>AVERAGE(B2:B3)</f>
-        <v>103</v>
+        <v>104.5</v>
       </c>
       <c r="J2" s="2">
         <f>AVERAGE(C2:C3)</f>
@@ -28946,8 +28939,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f>AVERAGE(B4:B5)</f>
-        <v>133</v>
+        <v>133.6</v>
       </c>
       <c r="J3" s="2">
         <f>AVERAGE(C4:C5)</f>
@@ -29016,8 +29008,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <f>AVERAGE(B6:B7)</f>
-        <v>83.5</v>
+        <v>84.7</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4:K4" si="8">AVERAGE(C6:C7)</f>
@@ -29086,8 +29077,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2">
-        <f>AVERAGE(B8:B9)</f>
-        <v>59.5</v>
+        <v>64.8</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:K5" si="12">AVERAGE(C8:C9)</f>
@@ -29156,8 +29146,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <f>AVERAGE(B10:B11)</f>
-        <v>134.5</v>
+        <v>136.9</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ref="J6:K6" si="16">AVERAGE(C10:C11)</f>
@@ -29226,8 +29215,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="2">
-        <f>AVERAGE(B12:B13)</f>
-        <v>77</v>
+        <v>74.7</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K7" si="20">AVERAGE(C12:C13)</f>
@@ -29478,8 +29466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD564A3C-D83D-429F-8C91-6A5C7A2F819D}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="B6:B13 G6:H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
